--- a/data/trans_orig/P1409-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1409-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>13201</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7322</v>
+        <v>6993</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21877</v>
+        <v>21650</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01876491111281673</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01040780868575199</v>
+        <v>0.00994033018480078</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03109819615252846</v>
+        <v>0.03077666962873871</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -764,19 +764,19 @@
         <v>16537</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10052</v>
+        <v>9391</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>27217</v>
+        <v>25674</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02372497196935184</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01442071210131301</v>
+        <v>0.01347187006013494</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03904569973153042</v>
+        <v>0.036832520638921</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -785,19 +785,19 @@
         <v>29738</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19409</v>
+        <v>19758</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>40655</v>
+        <v>41869</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02123357485149465</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01385843591381121</v>
+        <v>0.01410776920950333</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02902843970156547</v>
+        <v>0.02989531082164843</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>690268</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>681592</v>
+        <v>681819</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>696147</v>
+        <v>696476</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9812350888871832</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9689018038474715</v>
+        <v>0.9692233303712613</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.989592191314248</v>
+        <v>0.9900596698151992</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>634</v>
@@ -835,19 +835,19 @@
         <v>680513</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>669833</v>
+        <v>671376</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>686998</v>
+        <v>687659</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9762750280306481</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9609543002684697</v>
+        <v>0.9631674793610797</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.985579287898687</v>
+        <v>0.9865281299398651</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1295</v>
@@ -856,19 +856,19 @@
         <v>1370781</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1359864</v>
+        <v>1358650</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1381110</v>
+        <v>1380761</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9787664251485053</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9709715602984346</v>
+        <v>0.9701046891783515</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9861415640861888</v>
+        <v>0.9858922307904965</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>17617</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11077</v>
+        <v>10391</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28179</v>
+        <v>28062</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01730600003753737</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01088185336817411</v>
+        <v>0.01020754168162959</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02768172251791473</v>
+        <v>0.027567303181282</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -981,19 +981,19 @@
         <v>29009</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>19007</v>
+        <v>19129</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42434</v>
+        <v>42535</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02822490730658095</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01849313491823067</v>
+        <v>0.01861165207075747</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04128705083850157</v>
+        <v>0.04138526211887104</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>42</v>
@@ -1002,19 +1002,19 @@
         <v>46626</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>34230</v>
+        <v>34851</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>64153</v>
+        <v>63117</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0227917228500585</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01673248717877445</v>
+        <v>0.01703613620613691</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03135919674969555</v>
+        <v>0.03085298552498466</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1000330</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>989768</v>
+        <v>989885</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1006870</v>
+        <v>1007556</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9826939999624626</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9723182774820852</v>
+        <v>0.972432696818718</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.989118146631826</v>
+        <v>0.9897924583183704</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>912</v>
@@ -1052,19 +1052,19 @@
         <v>998782</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>985357</v>
+        <v>985256</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1008784</v>
+        <v>1008662</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.971775092693419</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9587129491614982</v>
+        <v>0.9586147378811292</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9815068650817692</v>
+        <v>0.9813883479292427</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1831</v>
@@ -1073,19 +1073,19 @@
         <v>1999112</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1981585</v>
+        <v>1982621</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2011508</v>
+        <v>2010887</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9772082771499415</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9686408032503044</v>
+        <v>0.9691470144750153</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9832675128212255</v>
+        <v>0.9829638637938631</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>10006</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4863</v>
+        <v>4980</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17898</v>
+        <v>17401</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01320675172604394</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006419320528358542</v>
+        <v>0.00657349403428584</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02362395122623639</v>
+        <v>0.02296832029465893</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -1198,19 +1198,19 @@
         <v>19161</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11894</v>
+        <v>10871</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29536</v>
+        <v>29861</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02465449419785785</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01530416008754508</v>
+        <v>0.01398740950210041</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03800430621568493</v>
+        <v>0.03842253858317651</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>27</v>
@@ -1219,19 +1219,19 @@
         <v>29167</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19641</v>
+        <v>19772</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41766</v>
+        <v>42082</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0190035352884385</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01279736246260402</v>
+        <v>0.0128822967848028</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02721256822894256</v>
+        <v>0.02741875471315331</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>747617</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>739725</v>
+        <v>740222</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>752760</v>
+        <v>752643</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9867932482739561</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9763760487737636</v>
+        <v>0.977031679705341</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9935806794716415</v>
+        <v>0.9934265059657141</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>688</v>
@@ -1269,19 +1269,19 @@
         <v>758013</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>747638</v>
+        <v>747313</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>765280</v>
+        <v>766303</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9753455058021422</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9619956937843154</v>
+        <v>0.9615774614168235</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9846958399124549</v>
+        <v>0.9860125904978995</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1367</v>
@@ -1290,19 +1290,19 @@
         <v>1505630</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1493031</v>
+        <v>1492715</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1515156</v>
+        <v>1515025</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9809964647115615</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9727874317710576</v>
+        <v>0.9725812452868471</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9872026375373961</v>
+        <v>0.9871177032151973</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>24598</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16498</v>
+        <v>15736</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>37037</v>
+        <v>36549</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02595467051851633</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01740786009188842</v>
+        <v>0.01660322832581527</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03907901262044978</v>
+        <v>0.03856475895762962</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -1415,19 +1415,19 @@
         <v>31473</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21798</v>
+        <v>22413</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>45017</v>
+        <v>45666</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02991989802007931</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02072255401849675</v>
+        <v>0.02130710915029521</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04279545652895572</v>
+        <v>0.04341253636624318</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>53</v>
@@ -1436,19 +1436,19 @@
         <v>56071</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42220</v>
+        <v>42623</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>72983</v>
+        <v>73959</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02804055898534057</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02111363649981227</v>
+        <v>0.02131539772249904</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03649819372379102</v>
+        <v>0.03698595198244758</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>923141</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>910702</v>
+        <v>911190</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>931241</v>
+        <v>932003</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9740453294814837</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9609209873795502</v>
+        <v>0.9614352410423704</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9825921399081116</v>
+        <v>0.9833967716741847</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>973</v>
@@ -1486,19 +1486,19 @@
         <v>1020428</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1006884</v>
+        <v>1006235</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1030103</v>
+        <v>1029488</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9700801019799207</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.957204543471044</v>
+        <v>0.9565874636337569</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9792774459815032</v>
+        <v>0.9786928908497049</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1860</v>
@@ -1507,19 +1507,19 @@
         <v>1943569</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1926657</v>
+        <v>1925681</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1957420</v>
+        <v>1957017</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9719594410146595</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9635018062762091</v>
+        <v>0.9630140480175524</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9788863635001878</v>
+        <v>0.978684602277501</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>65421</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>51118</v>
+        <v>49826</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>82562</v>
+        <v>82406</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01909114538981749</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01491709552948997</v>
+        <v>0.01454015969614824</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02409318267194955</v>
+        <v>0.02404766709812177</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>88</v>
@@ -1632,19 +1632,19 @@
         <v>96180</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>76534</v>
+        <v>77592</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>117115</v>
+        <v>117818</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02706321689366825</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02153525465828988</v>
+        <v>0.02183268031102076</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03295389072489161</v>
+        <v>0.03315164854182196</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>151</v>
@@ -1653,19 +1653,19 @@
         <v>161602</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>138401</v>
+        <v>137532</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>188866</v>
+        <v>189031</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02314977733220051</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01982624020628889</v>
+        <v>0.019701698198475</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02705552090568639</v>
+        <v>0.02707911755402076</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>3361358</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3344217</v>
+        <v>3344373</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3375661</v>
+        <v>3376953</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9809088546101825</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9759068173280505</v>
+        <v>0.9759523329018782</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9850829044705101</v>
+        <v>0.9854598403038518</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3207</v>
@@ -1703,19 +1703,19 @@
         <v>3457736</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3436801</v>
+        <v>3436098</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3477382</v>
+        <v>3476324</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9729367831063317</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9670461092751084</v>
+        <v>0.966848351458178</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9784647453417101</v>
+        <v>0.9781673196889792</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6353</v>
@@ -1724,19 +1724,19 @@
         <v>6819092</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6791828</v>
+        <v>6791663</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6842293</v>
+        <v>6843162</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9768502226677995</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9729444790943136</v>
+        <v>0.9729208824459792</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.980173759793711</v>
+        <v>0.9802983018015248</v>
       </c>
     </row>
     <row r="18">
@@ -2068,19 +2068,19 @@
         <v>21590</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13593</v>
+        <v>13855</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32712</v>
+        <v>32381</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03199481868109756</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02014352955139169</v>
+        <v>0.02053196466758839</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04847649781321291</v>
+        <v>0.0479865659188889</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -2089,19 +2089,19 @@
         <v>23166</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15312</v>
+        <v>14245</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33988</v>
+        <v>34403</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03443028852974037</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02275684501738633</v>
+        <v>0.02117151935354016</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05051486237523689</v>
+        <v>0.05113150803186098</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>44</v>
@@ -2110,19 +2110,19 @@
         <v>44756</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32475</v>
+        <v>32511</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>58340</v>
+        <v>59776</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03321078163194342</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02409806078506491</v>
+        <v>0.02412444438909337</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04329063072849625</v>
+        <v>0.0443557904120454</v>
       </c>
     </row>
     <row r="5">
@@ -2139,19 +2139,19 @@
         <v>653210</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>642088</v>
+        <v>642419</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>661207</v>
+        <v>660945</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9680051813189025</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9515235021867869</v>
+        <v>0.9520134340811108</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9798564704486084</v>
+        <v>0.9794680353324116</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>643</v>
@@ -2160,19 +2160,19 @@
         <v>649673</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>638851</v>
+        <v>638436</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>657527</v>
+        <v>658594</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9655697114702596</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9494851376247628</v>
+        <v>0.9488684919681388</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9772431549826134</v>
+        <v>0.9788284806464598</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1274</v>
@@ -2181,19 +2181,19 @@
         <v>1302883</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1289299</v>
+        <v>1287863</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1315164</v>
+        <v>1315128</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9667892183680565</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9567093692715034</v>
+        <v>0.955644209587955</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9759019392149351</v>
+        <v>0.975875555610907</v>
       </c>
     </row>
     <row r="6">
@@ -2285,19 +2285,19 @@
         <v>23038</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13965</v>
+        <v>15179</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34374</v>
+        <v>36749</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.022532564097117</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01365909713018741</v>
+        <v>0.01484582489554793</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03362008848755573</v>
+        <v>0.0359428316384537</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>41</v>
@@ -2306,19 +2306,19 @@
         <v>45932</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33470</v>
+        <v>32597</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>62530</v>
+        <v>61847</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04404193849666036</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03209257913584471</v>
+        <v>0.03125557285759246</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05995694010595946</v>
+        <v>0.05930229011188647</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>63</v>
@@ -2327,19 +2327,19 @@
         <v>68970</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>53333</v>
+        <v>54088</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>87533</v>
+        <v>88992</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0333939054975192</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02582298067851663</v>
+        <v>0.02618824114844156</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04238179137852797</v>
+        <v>0.04308803654881931</v>
       </c>
     </row>
     <row r="8">
@@ -2356,19 +2356,19 @@
         <v>999393</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>988057</v>
+        <v>985682</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1008466</v>
+        <v>1007252</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.977467435902883</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9663799115124441</v>
+        <v>0.9640571683615458</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9863409028698125</v>
+        <v>0.985154175104452</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>936</v>
@@ -2377,19 +2377,19 @@
         <v>996981</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>980383</v>
+        <v>981066</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1009443</v>
+        <v>1010316</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9559580615033396</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9400430598940406</v>
+        <v>0.9406977098881135</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9679074208641554</v>
+        <v>0.9687444271424075</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1865</v>
@@ -2398,19 +2398,19 @@
         <v>1996374</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1977811</v>
+        <v>1976352</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2012011</v>
+        <v>2011256</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9666060945024808</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9576182086214721</v>
+        <v>0.9569119634511809</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9741770193214834</v>
+        <v>0.9738117588515586</v>
       </c>
     </row>
     <row r="9">
@@ -2502,19 +2502,19 @@
         <v>11470</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6138</v>
+        <v>6530</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20247</v>
+        <v>20342</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01510156051344853</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008081146399164617</v>
+        <v>0.008597587306908686</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02665609914483136</v>
+        <v>0.02678200352301028</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>29</v>
@@ -2523,19 +2523,19 @@
         <v>30874</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>21749</v>
+        <v>20995</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>44071</v>
+        <v>43664</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03932910793648389</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0277057614420081</v>
+        <v>0.02674426029516673</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05614057549679261</v>
+        <v>0.05562167835642503</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>40</v>
@@ -2544,19 +2544,19 @@
         <v>42344</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30569</v>
+        <v>30297</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57240</v>
+        <v>55919</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02741500240042046</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01979163181517054</v>
+        <v>0.01961553805062379</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0370590813084366</v>
+        <v>0.0362034921823076</v>
       </c>
     </row>
     <row r="11">
@@ -2573,19 +2573,19 @@
         <v>748082</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>739305</v>
+        <v>739210</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>753414</v>
+        <v>753022</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9848984394865514</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9733439008551686</v>
+        <v>0.9732179964769897</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9919188536008355</v>
+        <v>0.9914024126930914</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>707</v>
@@ -2594,19 +2594,19 @@
         <v>754137</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>740940</v>
+        <v>741347</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>763262</v>
+        <v>764016</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9606708920635161</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9438594245032075</v>
+        <v>0.9443783216435743</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9722942385579922</v>
+        <v>0.973255739704833</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1392</v>
@@ -2615,19 +2615,19 @@
         <v>1502219</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1487323</v>
+        <v>1488644</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1513994</v>
+        <v>1514266</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9725849975995795</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9629409186915634</v>
+        <v>0.9637965078176924</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9802083681848295</v>
+        <v>0.9803844619493762</v>
       </c>
     </row>
     <row r="12">
@@ -2719,19 +2719,19 @@
         <v>30086</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21122</v>
+        <v>20782</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42985</v>
+        <v>43155</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03208962365205074</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02252893941750178</v>
+        <v>0.02216623984015628</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04584747446855699</v>
+        <v>0.0460289471191277</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -2740,19 +2740,19 @@
         <v>41186</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29714</v>
+        <v>30726</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>55017</v>
+        <v>56185</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0394589575701914</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02846772800482906</v>
+        <v>0.0294377254478762</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05270960420039014</v>
+        <v>0.05382843235579605</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>69</v>
@@ -2761,19 +2761,19 @@
         <v>71273</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>56405</v>
+        <v>55035</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>88865</v>
+        <v>89126</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.03597181082951744</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02846817659627345</v>
+        <v>0.02777644887548313</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04485086555770013</v>
+        <v>0.04498274746300199</v>
       </c>
     </row>
     <row r="14">
@@ -2790,19 +2790,19 @@
         <v>907481</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>894582</v>
+        <v>894412</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>916445</v>
+        <v>916785</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9679103763479493</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9541525255314429</v>
+        <v>0.9539710528808724</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9774710605824982</v>
+        <v>0.977833760159844</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>920</v>
@@ -2811,19 +2811,19 @@
         <v>1002593</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>988762</v>
+        <v>987594</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1014065</v>
+        <v>1013053</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9605410424298086</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9472903957996099</v>
+        <v>0.9461715676442041</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9715322719951709</v>
+        <v>0.9705622745521238</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1822</v>
@@ -2832,19 +2832,19 @@
         <v>1910073</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1892481</v>
+        <v>1892220</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1924941</v>
+        <v>1926311</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9640281891704826</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9551491344422998</v>
+        <v>0.9550172525369982</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9715318234037266</v>
+        <v>0.972223551124517</v>
       </c>
     </row>
     <row r="15">
@@ -2936,19 +2936,19 @@
         <v>86185</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>69308</v>
+        <v>69671</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>108509</v>
+        <v>107655</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02539062987196886</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02041850189370339</v>
+        <v>0.02052567734377058</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03196767718547255</v>
+        <v>0.03171602182381973</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>132</v>
@@ -2957,19 +2957,19 @@
         <v>141158</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>119101</v>
+        <v>117940</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>167275</v>
+        <v>165669</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0398240914492156</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03360114364093895</v>
+        <v>0.03327379597781951</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04719236571803469</v>
+        <v>0.04673919134036895</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>216</v>
@@ -2978,19 +2978,19 @@
         <v>227343</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>199396</v>
+        <v>196615</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>260353</v>
+        <v>260974</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03276356610283877</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02873603704342532</v>
+        <v>0.02833518751906267</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03752083387129256</v>
+        <v>0.03761029370955254</v>
       </c>
     </row>
     <row r="17">
@@ -3007,19 +3007,19 @@
         <v>3308165</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3285841</v>
+        <v>3286695</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3325042</v>
+        <v>3324679</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9746093701280312</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9680323228145272</v>
+        <v>0.9682839781761803</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9795814981062966</v>
+        <v>0.9794743226562294</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3206</v>
@@ -3028,19 +3028,19 @@
         <v>3403384</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3377267</v>
+        <v>3378873</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3425441</v>
+        <v>3426602</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9601759085507844</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9528076342819651</v>
+        <v>0.953260808659631</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9663988563590609</v>
+        <v>0.9667262040221805</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6353</v>
@@ -3049,19 +3049,19 @@
         <v>6711549</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6678539</v>
+        <v>6677918</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6739496</v>
+        <v>6742277</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9672364338971612</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9624791661287074</v>
+        <v>0.9623897062904474</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9712639629565746</v>
+        <v>0.9716648124809373</v>
       </c>
     </row>
     <row r="18">
@@ -3393,19 +3393,19 @@
         <v>31405</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21406</v>
+        <v>21678</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46140</v>
+        <v>46992</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04546794694252055</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03099078199379292</v>
+        <v>0.03138548930920441</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06680068217439861</v>
+        <v>0.06803384657242867</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -3414,19 +3414,19 @@
         <v>22810</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16833</v>
+        <v>16659</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>30857</v>
+        <v>30829</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03115284251051483</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0229900321530582</v>
+        <v>0.02275175497524045</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04214376467907571</v>
+        <v>0.04210478735916596</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>77</v>
@@ -3435,19 +3435,19 @@
         <v>54215</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42045</v>
+        <v>42088</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>69918</v>
+        <v>71368</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03810175118563997</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02954860328810266</v>
+        <v>0.02957885034577863</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04913774961984239</v>
+        <v>0.05015702333153582</v>
       </c>
     </row>
     <row r="5">
@@ -3464,19 +3464,19 @@
         <v>659305</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>644570</v>
+        <v>643718</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>669304</v>
+        <v>669032</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9545320530574796</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9331993178256008</v>
+        <v>0.9319661534275711</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.969009218006207</v>
+        <v>0.9686145106907956</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1192</v>
@@ -3485,19 +3485,19 @@
         <v>709377</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>701330</v>
+        <v>701358</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>715354</v>
+        <v>715528</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9688471574894852</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9578562353209246</v>
+        <v>0.9578952126408342</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9770099678469418</v>
+        <v>0.9772482450247595</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1890</v>
@@ -3506,19 +3506,19 @@
         <v>1368682</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1352979</v>
+        <v>1351529</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1380852</v>
+        <v>1380809</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.96189824881436</v>
+        <v>0.9618982488143599</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9508622503801576</v>
+        <v>0.9498429766684641</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9704513967118974</v>
+        <v>0.9704211496542214</v>
       </c>
     </row>
     <row r="6">
@@ -3610,19 +3610,19 @@
         <v>48842</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>34045</v>
+        <v>33696</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69344</v>
+        <v>71878</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.04662628030860767</v>
+        <v>0.04662628030860766</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03250042889241337</v>
+        <v>0.03216723301138489</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06619847364654237</v>
+        <v>0.06861741665378526</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>62</v>
@@ -3631,19 +3631,19 @@
         <v>41477</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>31705</v>
+        <v>31311</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51987</v>
+        <v>52556</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03875685648567559</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02962610966476437</v>
+        <v>0.02925742090408209</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0485779351696739</v>
+        <v>0.0491094497142348</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>99</v>
@@ -3652,19 +3652,19 @@
         <v>90319</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>71442</v>
+        <v>71949</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>114360</v>
+        <v>113379</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04264945055940864</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03373547263691325</v>
+        <v>0.03397474750215791</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05400202687193815</v>
+        <v>0.05353859413355949</v>
       </c>
     </row>
     <row r="8">
@@ -3681,19 +3681,19 @@
         <v>998677</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>978175</v>
+        <v>975641</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1013474</v>
+        <v>1013823</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9533737196913922</v>
+        <v>0.9533737196913923</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9338015263534567</v>
+        <v>0.9313825833462147</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9674995711075867</v>
+        <v>0.9678327669886153</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1453</v>
@@ -3702,19 +3702,19 @@
         <v>1028710</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1018200</v>
+        <v>1017631</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1038482</v>
+        <v>1038876</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9612431435143245</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9514220648303261</v>
+        <v>0.9508905502857652</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9703738903352356</v>
+        <v>0.9707425790959178</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2379</v>
@@ -3723,19 +3723,19 @@
         <v>2027387</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2003346</v>
+        <v>2004327</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2046264</v>
+        <v>2045757</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9573505494405912</v>
+        <v>0.9573505494405913</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9459979731280618</v>
+        <v>0.9464614058664407</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9662645273630867</v>
+        <v>0.9660252524978421</v>
       </c>
     </row>
     <row r="9">
@@ -3827,19 +3827,19 @@
         <v>23500</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>13553</v>
+        <v>14323</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38588</v>
+        <v>38678</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02936688293659012</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01693584476715256</v>
+        <v>0.01789848973679571</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04822143921249452</v>
+        <v>0.04833356818919576</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>61</v>
@@ -3848,19 +3848,19 @@
         <v>43954</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34141</v>
+        <v>33625</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55924</v>
+        <v>55087</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05424553580114654</v>
+        <v>0.05424553580114656</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04213451000849498</v>
+        <v>0.04149884885547967</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06901810698480858</v>
+        <v>0.06798543827370836</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>79</v>
@@ -3869,19 +3869,19 @@
         <v>67454</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>52695</v>
+        <v>53816</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84414</v>
+        <v>87787</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04188381294455217</v>
+        <v>0.04188381294455215</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03271991589189578</v>
+        <v>0.03341562169886836</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05241477351788904</v>
+        <v>0.05450896319124008</v>
       </c>
     </row>
     <row r="11">
@@ -3898,19 +3898,19 @@
         <v>776727</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>761639</v>
+        <v>761549</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>786674</v>
+        <v>785904</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9706331170634099</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9517785607875054</v>
+        <v>0.9516664318108042</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9830641552328475</v>
+        <v>0.9821015102632042</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>983</v>
@@ -3919,19 +3919,19 @@
         <v>766321</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>754351</v>
+        <v>755188</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>776134</v>
+        <v>776650</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9457544641988533</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9309818930151914</v>
+        <v>0.9320145617262918</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.957865489991505</v>
+        <v>0.9585011511445203</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1638</v>
@@ -3940,19 +3940,19 @@
         <v>1543048</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1526088</v>
+        <v>1522715</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1557807</v>
+        <v>1556686</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9581161870554479</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9475852264821111</v>
+        <v>0.9454910368087598</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9672800841081042</v>
+        <v>0.9665843783011315</v>
       </c>
     </row>
     <row r="12">
@@ -4044,19 +4044,19 @@
         <v>32134</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>22463</v>
+        <v>21583</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47441</v>
+        <v>45902</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03245645924215964</v>
+        <v>0.03245645924215963</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02268871127980527</v>
+        <v>0.02179926140694967</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04791737983567559</v>
+        <v>0.04636301553211621</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>99</v>
@@ -4065,19 +4065,19 @@
         <v>69456</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56412</v>
+        <v>56064</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84540</v>
+        <v>84550</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06219301233994762</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05051326016602544</v>
+        <v>0.05020150543351802</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0756999936227154</v>
+        <v>0.07570884964152685</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>131</v>
@@ -4086,19 +4086,19 @@
         <v>101590</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>83727</v>
+        <v>83013</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>121333</v>
+        <v>119397</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04821899078365441</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03974048258355741</v>
+        <v>0.03940184729575687</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05759009582353258</v>
+        <v>0.05667125634411617</v>
       </c>
     </row>
     <row r="14">
@@ -4115,19 +4115,19 @@
         <v>957928</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>942621</v>
+        <v>944160</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>967599</v>
+        <v>968479</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9675435407578404</v>
+        <v>0.9675435407578405</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9520826201643243</v>
+        <v>0.953636984467884</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9773112887201947</v>
+        <v>0.9782007385930505</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1459</v>
@@ -4136,19 +4136,19 @@
         <v>1047323</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1032239</v>
+        <v>1032229</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1060367</v>
+        <v>1060715</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9378069876600524</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9243000063772845</v>
+        <v>0.9242911503584732</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9494867398339744</v>
+        <v>0.9497984945664821</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2433</v>
@@ -4157,19 +4157,19 @@
         <v>2005251</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1985508</v>
+        <v>1987444</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2023114</v>
+        <v>2023828</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9517810092163457</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9424099041764672</v>
+        <v>0.9433287436558839</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9602595174164424</v>
+        <v>0.960598152704244</v>
       </c>
     </row>
     <row r="15">
@@ -4261,19 +4261,19 @@
         <v>135881</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>110526</v>
+        <v>110783</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>167052</v>
+        <v>167679</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03850941067902774</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03132366422865277</v>
+        <v>0.03139640622144587</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04734336112947959</v>
+        <v>0.04752107556135166</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>267</v>
@@ -4282,19 +4282,19 @@
         <v>177696</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>157873</v>
+        <v>157486</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>202971</v>
+        <v>202811</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04764710036468307</v>
+        <v>0.04764710036468306</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04233177123261193</v>
+        <v>0.04222792475395597</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05442422434849485</v>
+        <v>0.05438116627672087</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>386</v>
@@ -4303,19 +4303,19 @@
         <v>313578</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>281923</v>
+        <v>281372</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>352221</v>
+        <v>348997</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04320472712868246</v>
+        <v>0.04320472712868245</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03884336123399579</v>
+        <v>0.03876746204680678</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04852896017608707</v>
+        <v>0.04808480943010211</v>
       </c>
     </row>
     <row r="17">
@@ -4332,19 +4332,19 @@
         <v>3392637</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3361466</v>
+        <v>3360839</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3417992</v>
+        <v>3417735</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9614905893209724</v>
+        <v>0.9614905893209722</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9526566388705204</v>
+        <v>0.9524789244386477</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9686763357713473</v>
+        <v>0.9686035937785542</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5087</v>
@@ -4353,19 +4353,19 @@
         <v>3551731</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3526456</v>
+        <v>3526616</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3571554</v>
+        <v>3571941</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.952352899635317</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9455757756515052</v>
+        <v>0.9456188337232787</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9576682287673879</v>
+        <v>0.9577720752460438</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8340</v>
@@ -4374,19 +4374,19 @@
         <v>6944367</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6905724</v>
+        <v>6908948</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6976022</v>
+        <v>6976573</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9567952728713177</v>
+        <v>0.9567952728713174</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9514710398239129</v>
+        <v>0.9519151905698977</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9611566387660039</v>
+        <v>0.9612325379531931</v>
       </c>
     </row>
     <row r="18">
